--- a/data/xlsx/01182019.xlsx
+++ b/data/xlsx/01182019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8093A0B7-3EE3-F94A-88D2-5304892BD851}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0003308-656B-C74D-AFA7-52928E87E2B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="440" windowWidth="15400" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="15400" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -876,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A40"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -888,14 +888,9 @@
     <col min="2" max="2" width="8"/>
     <col min="3" max="5" width="19"/>
     <col min="8" max="8" width="14"/>
-    <col min="9" max="9" width="19"/>
-    <col min="10" max="10" width="21"/>
-    <col min="11" max="11" width="17"/>
-    <col min="12" max="12" width="21"/>
-    <col min="13" max="13" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -920,9 +915,8 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>43483</v>
       </c>
@@ -947,9 +941,8 @@
       <c r="H2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>43483</v>
       </c>
@@ -974,9 +967,8 @@
       <c r="H3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>43483</v>
       </c>
@@ -1001,9 +993,8 @@
       <c r="H4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>43483</v>
       </c>
@@ -1028,9 +1019,8 @@
       <c r="H5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>43483</v>
       </c>
@@ -1055,9 +1045,8 @@
       <c r="H6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>43483</v>
       </c>
@@ -1082,9 +1071,8 @@
       <c r="H7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>43483</v>
       </c>
@@ -1109,9 +1097,8 @@
       <c r="H8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>43483</v>
       </c>
@@ -1136,9 +1123,8 @@
       <c r="H9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>43483</v>
       </c>
@@ -1163,9 +1149,8 @@
       <c r="H10" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>43483</v>
       </c>
@@ -1190,9 +1175,8 @@
       <c r="H11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>43483</v>
       </c>
@@ -1217,10 +1201,8 @@
       <c r="H12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>43483</v>
       </c>
@@ -1245,10 +1227,8 @@
       <c r="H13" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>43483</v>
       </c>
@@ -1273,10 +1253,8 @@
       <c r="H14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>43483</v>
       </c>
@@ -1301,9 +1279,8 @@
       <c r="H15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>43483</v>
       </c>
@@ -1328,9 +1305,8 @@
       <c r="H16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>43483</v>
       </c>
@@ -1355,11 +1331,8 @@
       <c r="H17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>43483</v>
       </c>
@@ -1384,10 +1357,8 @@
       <c r="H18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>43483</v>
       </c>
@@ -1412,10 +1383,8 @@
       <c r="H19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>43483</v>
       </c>
@@ -1440,9 +1409,8 @@
       <c r="H20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>43483</v>
       </c>
@@ -1467,9 +1435,8 @@
       <c r="H21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>43483</v>
       </c>
@@ -1494,9 +1461,8 @@
       <c r="H22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>43483</v>
       </c>
@@ -1521,9 +1487,8 @@
       <c r="H23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>43483</v>
       </c>
@@ -1548,9 +1513,8 @@
       <c r="H24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>43483</v>
       </c>
@@ -1575,10 +1539,8 @@
       <c r="H25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>43483</v>
       </c>
@@ -1603,9 +1565,8 @@
       <c r="H26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>43483</v>
       </c>
@@ -1630,9 +1591,8 @@
       <c r="H27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>43483</v>
       </c>
@@ -1657,9 +1617,8 @@
       <c r="H28" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>43483</v>
       </c>
@@ -1684,9 +1643,8 @@
       <c r="H29" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>43483</v>
       </c>
@@ -1711,9 +1669,8 @@
       <c r="H30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>43483</v>
       </c>
@@ -1738,9 +1695,8 @@
       <c r="H31" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>43483</v>
       </c>
@@ -1765,9 +1721,8 @@
       <c r="H32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>43483</v>
       </c>
@@ -1792,10 +1747,8 @@
       <c r="H33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>43483</v>
       </c>
@@ -1820,9 +1773,8 @@
       <c r="H34" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>43483</v>
       </c>
@@ -1847,9 +1799,8 @@
       <c r="H35" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>43483</v>
       </c>
@@ -1874,9 +1825,8 @@
       <c r="H36" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>43483</v>
       </c>
@@ -1901,9 +1851,8 @@
       <c r="H37" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>43483</v>
       </c>
@@ -1928,9 +1877,8 @@
       <c r="H38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>43483</v>
       </c>
@@ -1955,9 +1903,8 @@
       <c r="H39" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>43483</v>
       </c>
@@ -1982,7 +1929,6 @@
       <c r="H40" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/01182019.xlsx
+++ b/data/xlsx/01182019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0003308-656B-C74D-AFA7-52928E87E2B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C808E-3BA0-6940-B835-28EE4029B844}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="15400" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,6 +491,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -537,7 +540,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
